--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Omg-Rtn4rl1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Omg-Rtn4rl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.84428012923889</v>
+        <v>3.991866</v>
       </c>
       <c r="H2">
-        <v>2.84428012923889</v>
+        <v>11.975598</v>
       </c>
       <c r="I2">
-        <v>0.2142008289053084</v>
+        <v>0.2672133716845888</v>
       </c>
       <c r="J2">
-        <v>0.2142008289053084</v>
+        <v>0.2672133716845888</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.8003696882374</v>
+        <v>0.1028113333333333</v>
       </c>
       <c r="N2">
-        <v>1.8003696882374</v>
+        <v>0.308434</v>
       </c>
       <c r="O2">
-        <v>0.5694553849046251</v>
+        <v>0.02963305562291539</v>
       </c>
       <c r="P2">
-        <v>0.5694553849046251</v>
+        <v>0.02963305562291539</v>
       </c>
       <c r="Q2">
-        <v>5.120755729537652</v>
+        <v>0.410409065948</v>
       </c>
       <c r="R2">
-        <v>5.120755729537652</v>
+        <v>3.693681593532</v>
       </c>
       <c r="S2">
-        <v>0.1219778154711622</v>
+        <v>0.007918348706316183</v>
       </c>
       <c r="T2">
-        <v>0.1219778154711622</v>
+        <v>0.007918348706316186</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.84428012923889</v>
+        <v>3.991866</v>
       </c>
       <c r="H3">
-        <v>2.84428012923889</v>
+        <v>11.975598</v>
       </c>
       <c r="I3">
-        <v>0.2142008289053084</v>
+        <v>0.2672133716845888</v>
       </c>
       <c r="J3">
-        <v>0.2142008289053084</v>
+        <v>0.2672133716845888</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.36119438853208</v>
+        <v>1.826632666666667</v>
       </c>
       <c r="N3">
-        <v>1.36119438853208</v>
+        <v>5.479898</v>
       </c>
       <c r="O3">
-        <v>0.4305446150953749</v>
+        <v>0.5264858032574322</v>
       </c>
       <c r="P3">
-        <v>0.4305446150953749</v>
+        <v>0.5264858032574322</v>
       </c>
       <c r="Q3">
-        <v>3.871618151333277</v>
+        <v>7.291672836556002</v>
       </c>
       <c r="R3">
-        <v>3.871618151333277</v>
+        <v>65.62505552900402</v>
       </c>
       <c r="S3">
-        <v>0.09222301343414627</v>
+        <v>0.1406840466324875</v>
       </c>
       <c r="T3">
-        <v>0.09222301343414627</v>
+        <v>0.1406840466324875</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,55 +652,55 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.03931777387998</v>
+        <v>3.991866</v>
       </c>
       <c r="H4">
-        <v>3.03931777387998</v>
+        <v>11.975598</v>
       </c>
       <c r="I4">
-        <v>0.2288889831136071</v>
+        <v>0.2672133716845888</v>
       </c>
       <c r="J4">
-        <v>0.2288889831136071</v>
+        <v>0.2672133716845888</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.8003696882374</v>
+        <v>1.540037333333333</v>
       </c>
       <c r="N4">
-        <v>1.8003696882374</v>
+        <v>4.620112</v>
       </c>
       <c r="O4">
-        <v>0.5694553849046251</v>
+        <v>0.4438811411196524</v>
       </c>
       <c r="P4">
-        <v>0.5694553849046251</v>
+        <v>0.4438811411196525</v>
       </c>
       <c r="Q4">
-        <v>5.471895593014689</v>
+        <v>6.147622669664</v>
       </c>
       <c r="R4">
-        <v>5.471895593014689</v>
+        <v>55.328604026976</v>
       </c>
       <c r="S4">
-        <v>0.1303420639793874</v>
+        <v>0.1186109763457851</v>
       </c>
       <c r="T4">
-        <v>0.1303420639793874</v>
+        <v>0.1186109763457851</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,60 +714,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.03931777387998</v>
+        <v>3.046736666666666</v>
       </c>
       <c r="H5">
-        <v>3.03931777387998</v>
+        <v>9.14021</v>
       </c>
       <c r="I5">
-        <v>0.2288889831136071</v>
+        <v>0.2039469203963923</v>
       </c>
       <c r="J5">
-        <v>0.2288889831136071</v>
+        <v>0.2039469203963923</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.36119438853208</v>
+        <v>0.1028113333333333</v>
       </c>
       <c r="N5">
-        <v>1.36119438853208</v>
+        <v>0.308434</v>
       </c>
       <c r="O5">
-        <v>0.4305446150953749</v>
+        <v>0.02963305562291539</v>
       </c>
       <c r="P5">
-        <v>0.4305446150953749</v>
+        <v>0.02963305562291539</v>
       </c>
       <c r="Q5">
-        <v>4.137102298771242</v>
+        <v>0.3132390590155555</v>
       </c>
       <c r="R5">
-        <v>4.137102298771242</v>
+        <v>2.81915153114</v>
       </c>
       <c r="S5">
-        <v>0.09854691913421973</v>
+        <v>0.00604357043622859</v>
       </c>
       <c r="T5">
-        <v>0.09854691913421973</v>
+        <v>0.006043570436228591</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -779,57 +779,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.96236510756302</v>
+        <v>3.046736666666666</v>
       </c>
       <c r="H6">
-        <v>2.96236510756302</v>
+        <v>9.14021</v>
       </c>
       <c r="I6">
-        <v>0.2230937294245911</v>
+        <v>0.2039469203963923</v>
       </c>
       <c r="J6">
-        <v>0.2230937294245911</v>
+        <v>0.2039469203963923</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.8003696882374</v>
+        <v>1.826632666666667</v>
       </c>
       <c r="N6">
-        <v>1.8003696882374</v>
+        <v>5.479898</v>
       </c>
       <c r="O6">
-        <v>0.5694553849046251</v>
+        <v>0.5264858032574322</v>
       </c>
       <c r="P6">
-        <v>0.5694553849046251</v>
+        <v>0.5264858032574322</v>
       </c>
       <c r="Q6">
-        <v>5.333352345148587</v>
+        <v>5.565268722064444</v>
       </c>
       <c r="R6">
-        <v>5.333352345148587</v>
+        <v>50.08741849858</v>
       </c>
       <c r="S6">
-        <v>0.1270419255592888</v>
+        <v>0.1073751582067742</v>
       </c>
       <c r="T6">
-        <v>0.1270419255592888</v>
+        <v>0.1073751582067742</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -841,57 +841,57 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.96236510756302</v>
+        <v>3.046736666666666</v>
       </c>
       <c r="H7">
-        <v>2.96236510756302</v>
+        <v>9.14021</v>
       </c>
       <c r="I7">
-        <v>0.2230937294245911</v>
+        <v>0.2039469203963923</v>
       </c>
       <c r="J7">
-        <v>0.2230937294245911</v>
+        <v>0.2039469203963923</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.36119438853208</v>
+        <v>1.540037333333333</v>
       </c>
       <c r="N7">
-        <v>1.36119438853208</v>
+        <v>4.620112</v>
       </c>
       <c r="O7">
-        <v>0.4305446150953749</v>
+        <v>0.4438811411196524</v>
       </c>
       <c r="P7">
-        <v>0.4305446150953749</v>
+        <v>0.4438811411196525</v>
       </c>
       <c r="Q7">
-        <v>4.032354761198015</v>
+        <v>4.692088211502222</v>
       </c>
       <c r="R7">
-        <v>4.032354761198015</v>
+        <v>42.22879390352</v>
       </c>
       <c r="S7">
-        <v>0.09605180386530231</v>
+        <v>0.09052819175338953</v>
       </c>
       <c r="T7">
-        <v>0.09605180386530231</v>
+        <v>0.09052819175338955</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.43260432154939</v>
+        <v>3.337145333333333</v>
       </c>
       <c r="H8">
-        <v>4.43260432154939</v>
+        <v>10.011436</v>
       </c>
       <c r="I8">
-        <v>0.3338164585564934</v>
+        <v>0.2233867209774804</v>
       </c>
       <c r="J8">
-        <v>0.3338164585564934</v>
+        <v>0.2233867209774804</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>1.8003696882374</v>
+        <v>0.1028113333333333</v>
       </c>
       <c r="N8">
-        <v>1.8003696882374</v>
+        <v>0.308434</v>
       </c>
       <c r="O8">
-        <v>0.5694553849046251</v>
+        <v>0.02963305562291539</v>
       </c>
       <c r="P8">
-        <v>0.5694553849046251</v>
+        <v>0.02963305562291539</v>
       </c>
       <c r="Q8">
-        <v>7.980326460467628</v>
+        <v>0.3430963612471111</v>
       </c>
       <c r="R8">
-        <v>7.980326460467628</v>
+        <v>3.087867251224</v>
       </c>
       <c r="S8">
-        <v>0.1900935798947868</v>
+        <v>0.006619631128146357</v>
       </c>
       <c r="T8">
-        <v>0.1900935798947868</v>
+        <v>0.006619631128146358</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,303 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3.337145333333333</v>
+      </c>
+      <c r="H9">
+        <v>10.011436</v>
+      </c>
+      <c r="I9">
+        <v>0.2233867209774804</v>
+      </c>
+      <c r="J9">
+        <v>0.2233867209774804</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.826632666666667</v>
+      </c>
+      <c r="N9">
+        <v>5.479898</v>
+      </c>
+      <c r="O9">
+        <v>0.5264858032574322</v>
+      </c>
+      <c r="P9">
+        <v>0.5264858032574322</v>
+      </c>
+      <c r="Q9">
+        <v>6.095738679280889</v>
+      </c>
+      <c r="R9">
+        <v>54.86164811352801</v>
+      </c>
+      <c r="S9">
+        <v>0.1176099372308727</v>
+      </c>
+      <c r="T9">
+        <v>0.1176099372308727</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>4.43260432154939</v>
-      </c>
-      <c r="H9">
-        <v>4.43260432154939</v>
-      </c>
-      <c r="I9">
-        <v>0.3338164585564934</v>
-      </c>
-      <c r="J9">
-        <v>0.3338164585564934</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1.36119438853208</v>
-      </c>
-      <c r="N9">
-        <v>1.36119438853208</v>
-      </c>
-      <c r="O9">
-        <v>0.4305446150953749</v>
-      </c>
-      <c r="P9">
-        <v>0.4305446150953749</v>
-      </c>
-      <c r="Q9">
-        <v>6.033636129076078</v>
-      </c>
-      <c r="R9">
-        <v>6.033636129076078</v>
-      </c>
-      <c r="S9">
-        <v>0.1437228786617066</v>
-      </c>
-      <c r="T9">
-        <v>0.1437228786617066</v>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3.337145333333333</v>
+      </c>
+      <c r="H10">
+        <v>10.011436</v>
+      </c>
+      <c r="I10">
+        <v>0.2233867209774804</v>
+      </c>
+      <c r="J10">
+        <v>0.2233867209774804</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.540037333333333</v>
+      </c>
+      <c r="N10">
+        <v>4.620112</v>
+      </c>
+      <c r="O10">
+        <v>0.4438811411196524</v>
+      </c>
+      <c r="P10">
+        <v>0.4438811411196525</v>
+      </c>
+      <c r="Q10">
+        <v>5.139328400092444</v>
+      </c>
+      <c r="R10">
+        <v>46.25395560083199</v>
+      </c>
+      <c r="S10">
+        <v>0.09915715261846141</v>
+      </c>
+      <c r="T10">
+        <v>0.09915715261846142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>4.563122666666667</v>
+      </c>
+      <c r="H11">
+        <v>13.689368</v>
+      </c>
+      <c r="I11">
+        <v>0.3054529869415386</v>
+      </c>
+      <c r="J11">
+        <v>0.3054529869415386</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.1028113333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.308434</v>
+      </c>
+      <c r="O11">
+        <v>0.02963305562291539</v>
+      </c>
+      <c r="P11">
+        <v>0.02963305562291539</v>
+      </c>
+      <c r="Q11">
+        <v>0.4691407255235555</v>
+      </c>
+      <c r="R11">
+        <v>4.222266529712</v>
+      </c>
+      <c r="S11">
+        <v>0.00905150535222426</v>
+      </c>
+      <c r="T11">
+        <v>0.009051505352224262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>4.563122666666667</v>
+      </c>
+      <c r="H12">
+        <v>13.689368</v>
+      </c>
+      <c r="I12">
+        <v>0.3054529869415386</v>
+      </c>
+      <c r="J12">
+        <v>0.3054529869415386</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.826632666666667</v>
+      </c>
+      <c r="N12">
+        <v>5.479898</v>
+      </c>
+      <c r="O12">
+        <v>0.5264858032574322</v>
+      </c>
+      <c r="P12">
+        <v>0.5264858032574322</v>
+      </c>
+      <c r="Q12">
+        <v>8.335148924940444</v>
+      </c>
+      <c r="R12">
+        <v>75.01634032446401</v>
+      </c>
+      <c r="S12">
+        <v>0.1608166611872979</v>
+      </c>
+      <c r="T12">
+        <v>0.1608166611872979</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4.563122666666667</v>
+      </c>
+      <c r="H13">
+        <v>13.689368</v>
+      </c>
+      <c r="I13">
+        <v>0.3054529869415386</v>
+      </c>
+      <c r="J13">
+        <v>0.3054529869415386</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.540037333333333</v>
+      </c>
+      <c r="N13">
+        <v>4.620112</v>
+      </c>
+      <c r="O13">
+        <v>0.4438811411196524</v>
+      </c>
+      <c r="P13">
+        <v>0.4438811411196525</v>
+      </c>
+      <c r="Q13">
+        <v>7.027379263246222</v>
+      </c>
+      <c r="R13">
+        <v>63.24641336921599</v>
+      </c>
+      <c r="S13">
+        <v>0.1355848204020164</v>
+      </c>
+      <c r="T13">
+        <v>0.1355848204020164</v>
       </c>
     </row>
   </sheetData>
